--- a/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0_0816.xlsx
+++ b/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0_0816.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="825" windowWidth="11610" windowHeight="11670" activeTab="6"/>
+    <workbookView xWindow="7950" yWindow="825" windowWidth="11610" windowHeight="11670" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Trench" sheetId="8" r:id="rId1"/>
     <sheet name="Expansion Joint" sheetId="4" r:id="rId2"/>
     <sheet name="PAINT" sheetId="5" r:id="rId3"/>
     <sheet name="Wall" sheetId="7" r:id="rId4"/>
-    <sheet name="Door" sheetId="2" r:id="rId5"/>
-    <sheet name="Window" sheetId="3" r:id="rId6"/>
-    <sheet name="Roof" sheetId="10" r:id="rId7"/>
-    <sheet name="Ext Stair" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
+    <sheet name="Cladding" sheetId="12" r:id="rId5"/>
+    <sheet name="Door" sheetId="2" r:id="rId6"/>
+    <sheet name="Window" sheetId="3" r:id="rId7"/>
+    <sheet name="Roof" sheetId="10" r:id="rId8"/>
+    <sheet name="Steel Fence" sheetId="11" r:id="rId9"/>
+    <sheet name="Ext Stair" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="349">
   <si>
     <t>CW-200mm</t>
   </si>
@@ -1178,6 +1180,36 @@
   </si>
   <si>
     <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F-roof1</t>
+  </si>
+  <si>
+    <t>2F-roof1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F-roof2</t>
+  </si>
+  <si>
+    <t>2F-roof2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F-roof2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downpipe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,7 +1217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1296,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1332,13 +1364,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,6 +1506,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1919,12 +2082,12 @@
   <dimension ref="A3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>248</v>
       </c>
@@ -1938,7 +2101,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>246</v>
       </c>
@@ -1955,12 +2118,150 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>247</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5">
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B18">
+    <sortCondition ref="B2:B18"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1970,11 +2271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
@@ -1982,7 +2283,7 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>327</v>
       </c>
@@ -1994,7 +2295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>259</v>
       </c>
@@ -2003,7 +2304,7 @@
         <v>48.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="E4" s="11">
         <f>15+1.2</f>
         <v>16.2</v>
@@ -2012,7 +2313,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="E5" s="11">
         <f>15+1.2</f>
         <v>16.2</v>
@@ -2021,7 +2322,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="E6" s="11">
         <f>15+1.2</f>
         <v>16.2</v>
@@ -2030,10 +2331,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="C8" t="s">
         <v>263</v>
       </c>
@@ -2043,7 +2344,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="E9" s="11">
         <f>18+1.2</f>
         <v>19.2</v>
@@ -2052,7 +2353,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="E10" s="11">
         <f>18+1.2</f>
         <v>19.2</v>
@@ -2061,7 +2362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="4" t="s">
         <v>266</v>
       </c>
@@ -2073,7 +2374,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9">
       <c r="C17" t="s">
         <v>267</v>
       </c>
@@ -2082,7 +2383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="E18" s="11">
         <v>26</v>
       </c>
@@ -2090,7 +2391,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9">
       <c r="C21" t="s">
         <v>263</v>
       </c>
@@ -2099,7 +2400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9">
       <c r="E22" s="11">
         <v>39</v>
       </c>
@@ -2107,7 +2408,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9">
       <c r="E23" s="11">
         <v>50</v>
       </c>
@@ -2115,7 +2416,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9">
       <c r="B28" s="4" t="s">
         <v>271</v>
       </c>
@@ -2130,7 +2431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7">
       <c r="C33" t="s">
         <v>273</v>
       </c>
@@ -2139,7 +2440,7 @@
         <v>500.5</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7">
       <c r="E34" s="11">
         <v>5.5</v>
       </c>
@@ -2147,7 +2448,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7">
       <c r="E35" s="11">
         <v>5.5</v>
       </c>
@@ -2155,7 +2456,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7">
       <c r="E36" s="12">
         <v>5.5</v>
       </c>
@@ -2163,7 +2464,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7">
       <c r="E37" s="11">
         <v>5.5</v>
       </c>
@@ -2174,7 +2475,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7">
       <c r="E38" s="11">
         <v>5.5</v>
       </c>
@@ -2182,7 +2483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7">
       <c r="E39" s="11">
         <v>5.5</v>
       </c>
@@ -2190,7 +2491,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7">
       <c r="E40" s="11">
         <v>5.5</v>
       </c>
@@ -2198,7 +2499,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7">
       <c r="E41" s="11">
         <v>5.5</v>
       </c>
@@ -2206,7 +2507,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7">
       <c r="E42" s="11">
         <v>5.5</v>
       </c>
@@ -2214,7 +2515,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7">
       <c r="E43" s="11">
         <v>5.5</v>
       </c>
@@ -2222,7 +2523,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7">
       <c r="E44" s="11">
         <v>5.5</v>
       </c>
@@ -2230,7 +2531,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7">
       <c r="E45" s="11">
         <v>5.5</v>
       </c>
@@ -2238,7 +2539,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7">
       <c r="E46" s="11">
         <v>5.5</v>
       </c>
@@ -2246,20 +2547,20 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7">
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7">
       <c r="E48" s="11"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7">
       <c r="G49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7">
       <c r="C51" t="s">
         <v>286</v>
       </c>
@@ -2268,7 +2569,7 @@
         <v>773.5</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7">
       <c r="E52" s="11">
         <v>6.5</v>
       </c>
@@ -2276,7 +2577,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7">
       <c r="E53" s="11">
         <v>6.5</v>
       </c>
@@ -2284,7 +2585,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7">
       <c r="E54" s="11">
         <v>6.5</v>
       </c>
@@ -2292,7 +2593,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7">
       <c r="E55" s="11">
         <v>6.5</v>
       </c>
@@ -2300,7 +2601,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7">
       <c r="E56" s="11">
         <v>6.5</v>
       </c>
@@ -2308,7 +2609,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7">
       <c r="E57" s="11">
         <v>6.5</v>
       </c>
@@ -2316,7 +2617,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7">
       <c r="E58" s="11">
         <v>6.5</v>
       </c>
@@ -2324,7 +2625,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7">
       <c r="E59" s="11">
         <v>6.5</v>
       </c>
@@ -2332,7 +2633,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7">
       <c r="E60" s="11">
         <v>6.5</v>
       </c>
@@ -2340,7 +2641,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7">
       <c r="E61" s="11">
         <v>6.5</v>
       </c>
@@ -2351,7 +2652,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7">
       <c r="E62" s="11">
         <v>6.5</v>
       </c>
@@ -2359,7 +2660,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7">
       <c r="E63" s="11">
         <v>6.5</v>
       </c>
@@ -2367,7 +2668,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7">
       <c r="E64" s="11">
         <v>6.5</v>
       </c>
@@ -2375,7 +2676,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6">
       <c r="E65" s="11">
         <v>6.5</v>
       </c>
@@ -2383,7 +2684,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6">
       <c r="E66" s="11">
         <v>6.5</v>
       </c>
@@ -2391,7 +2692,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6">
       <c r="E67" s="11">
         <v>6.5</v>
       </c>
@@ -2399,7 +2700,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6">
       <c r="E68" s="11">
         <v>6.5</v>
       </c>
@@ -2407,7 +2708,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6">
       <c r="C71" t="s">
         <v>294</v>
       </c>
@@ -2416,7 +2717,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6">
       <c r="E72" s="11">
         <v>6</v>
       </c>
@@ -2424,7 +2725,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6">
       <c r="E73" s="11">
         <v>6</v>
       </c>
@@ -2432,7 +2733,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6">
       <c r="E74" s="11">
         <v>6</v>
       </c>
@@ -2440,7 +2741,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:6">
       <c r="E75" s="11">
         <v>6</v>
       </c>
@@ -2448,7 +2749,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:6">
       <c r="E76" s="11">
         <v>6</v>
       </c>
@@ -2456,7 +2757,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:6">
       <c r="E77" s="11">
         <v>6</v>
       </c>
@@ -2464,7 +2765,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6">
       <c r="E78" s="11">
         <v>3</v>
       </c>
@@ -2472,7 +2773,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6">
       <c r="E79" s="11">
         <v>3</v>
       </c>
@@ -2480,7 +2781,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6">
       <c r="E80" s="11">
         <v>3</v>
       </c>
@@ -2488,7 +2789,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6">
       <c r="E81" s="11">
         <v>3</v>
       </c>
@@ -2496,7 +2797,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6">
       <c r="E82" s="11">
         <v>3</v>
       </c>
@@ -2504,7 +2805,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6">
       <c r="E83" s="11">
         <v>3</v>
       </c>
@@ -2512,7 +2813,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6">
       <c r="E84" s="11">
         <v>3</v>
       </c>
@@ -2520,7 +2821,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6">
       <c r="E85" s="11">
         <v>3</v>
       </c>
@@ -2528,7 +2829,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6">
       <c r="B89" s="4" t="s">
         <v>328</v>
       </c>
@@ -2537,7 +2838,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6">
       <c r="B93" s="4" t="s">
         <v>297</v>
       </c>
@@ -2549,7 +2850,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -2558,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6">
       <c r="C98" t="s">
         <v>299</v>
       </c>
@@ -2567,7 +2868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6">
       <c r="E99" s="11">
         <v>39</v>
       </c>
@@ -2575,7 +2876,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6">
       <c r="E100" s="11">
         <f>42+50</f>
         <v>92</v>
@@ -2584,7 +2885,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:6">
       <c r="E101" s="11">
         <v>26</v>
       </c>
@@ -2592,7 +2893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:6">
       <c r="E102" s="11">
         <v>26</v>
       </c>
@@ -2600,7 +2901,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:6">
       <c r="C103" t="s">
         <v>118</v>
       </c>
@@ -2609,7 +2910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6">
       <c r="E104" s="11">
         <v>39</v>
       </c>
@@ -2617,7 +2918,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6">
       <c r="E105" s="11">
         <f>42+50</f>
         <v>92</v>
@@ -2626,7 +2927,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:6">
       <c r="E106" s="11">
         <v>26</v>
       </c>
@@ -2634,7 +2935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:6">
       <c r="E107" s="11">
         <v>26</v>
       </c>
@@ -2642,7 +2943,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:6">
       <c r="C109" t="s">
         <v>157</v>
       </c>
@@ -2651,7 +2952,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:6">
       <c r="E110" s="11">
         <v>39</v>
       </c>
@@ -2659,7 +2960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:6">
       <c r="E111" s="11">
         <f>42+50</f>
         <v>92</v>
@@ -2668,7 +2969,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:6">
       <c r="E112" s="11">
         <v>26</v>
       </c>
@@ -2676,7 +2977,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6">
       <c r="E113" s="11">
         <v>26</v>
       </c>
@@ -2684,7 +2985,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6">
       <c r="B118" s="4" t="s">
         <v>212</v>
       </c>
@@ -2696,7 +2997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6">
       <c r="C120" t="s">
         <v>214</v>
       </c>
@@ -2705,7 +3006,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6">
       <c r="E121" s="11">
         <v>39</v>
       </c>
@@ -2713,7 +3014,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6">
       <c r="E122" s="11">
         <f>42+50</f>
         <v>92</v>
@@ -2722,7 +3023,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6">
       <c r="E123" s="11">
         <v>26</v>
       </c>
@@ -2730,7 +3031,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6">
       <c r="E124" s="11">
         <v>26</v>
       </c>
@@ -2751,16 +3052,16 @@
   <dimension ref="A3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -2768,18 +3069,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4">
         <v>416</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="F6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="F7" t="s">
         <v>255</v>
       </c>
@@ -2791,7 +3092,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>238</v>
       </c>
@@ -2799,13 +3100,13 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9">
         <v>416</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>239</v>
       </c>
@@ -2813,7 +3114,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>252</v>
       </c>
@@ -2826,7 +3127,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -2839,7 +3140,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="C15" s="4">
         <f>SUM(C13:C14)</f>
         <v>103.19999999999999</v>
@@ -2848,7 +3149,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>240</v>
       </c>
@@ -2856,7 +3157,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -2868,7 +3169,7 @@
         <v>387.17999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>242</v>
       </c>
@@ -2880,7 +3181,7 @@
         <v>175.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>244</v>
       </c>
@@ -2893,7 +3194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -2905,7 +3206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="C24" s="4">
         <f>SUM(C19:C23)</f>
         <v>694.37999999999988</v>
@@ -2924,11 +3225,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N72"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
@@ -2938,12 +3239,12 @@
     <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="B3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2963,7 +3264,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +3296,7 @@
         <v>1793.875</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="B6" s="11">
         <v>30</v>
       </c>
@@ -3026,7 +3327,7 @@
         <v>6102</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="B7" s="11">
         <v>24</v>
       </c>
@@ -3053,7 +3354,7 @@
         <v>12204</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14">
       <c r="B8" s="11">
         <v>24</v>
       </c>
@@ -3073,7 +3374,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14">
       <c r="B9" s="11">
         <v>30</v>
       </c>
@@ -3093,7 +3394,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14">
       <c r="B10" s="11">
         <v>42</v>
       </c>
@@ -3113,7 +3414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14">
       <c r="B11" s="11">
         <v>8</v>
       </c>
@@ -3133,7 +3434,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14">
       <c r="B12" s="11">
         <v>8</v>
       </c>
@@ -3153,7 +3454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14">
       <c r="B13" s="11">
         <v>14</v>
       </c>
@@ -3173,7 +3474,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="B14" s="11">
         <v>12</v>
       </c>
@@ -3193,7 +3494,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="B15" s="11">
         <v>7</v>
       </c>
@@ -3213,7 +3514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="11">
         <v>51</v>
       </c>
@@ -3233,7 +3534,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="11">
         <v>25</v>
       </c>
@@ -3253,7 +3554,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="11">
         <v>25</v>
       </c>
@@ -3270,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="11">
         <v>21</v>
       </c>
@@ -3279,7 +3580,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="11">
         <v>21</v>
       </c>
@@ -3288,7 +3589,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="11">
         <v>37</v>
       </c>
@@ -3297,7 +3598,7 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="11">
         <v>11</v>
       </c>
@@ -3306,7 +3607,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="11">
         <v>12</v>
       </c>
@@ -3315,7 +3616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="11">
         <v>12</v>
       </c>
@@ -3324,7 +3625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="11">
         <v>26</v>
       </c>
@@ -3333,7 +3634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="11">
         <v>14</v>
       </c>
@@ -3342,7 +3643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" s="11">
         <v>14</v>
       </c>
@@ -3351,7 +3652,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28" s="11">
         <v>9</v>
       </c>
@@ -3360,7 +3661,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29" s="11">
         <v>12</v>
       </c>
@@ -3369,7 +3670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30" s="11">
         <v>11</v>
       </c>
@@ -3378,7 +3679,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="B31" s="11">
         <v>15</v>
       </c>
@@ -3387,7 +3688,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="B35" s="4">
         <f>SUM(B6:B34)</f>
         <v>515</v>
@@ -3403,7 +3704,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3411,7 +3712,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
@@ -3428,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="B41" s="11">
         <v>24</v>
       </c>
@@ -3448,7 +3749,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42" s="11">
         <v>24</v>
       </c>
@@ -3468,7 +3769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43" s="11">
         <v>30</v>
       </c>
@@ -3488,7 +3789,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6">
       <c r="B44" s="11">
         <v>30</v>
       </c>
@@ -3508,7 +3809,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="B45" s="11">
         <v>12</v>
       </c>
@@ -3528,7 +3829,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6">
       <c r="B46" s="11">
         <v>7</v>
       </c>
@@ -3548,7 +3849,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6">
       <c r="B47" s="11">
         <v>30</v>
       </c>
@@ -3568,7 +3869,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6">
       <c r="B48" s="11">
         <v>14</v>
       </c>
@@ -3588,7 +3889,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6">
       <c r="B49" s="11">
         <v>100</v>
       </c>
@@ -3608,7 +3909,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6">
       <c r="B50" s="11">
         <v>25</v>
       </c>
@@ -3628,7 +3929,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6">
       <c r="B51" s="11">
         <v>12</v>
       </c>
@@ -3648,7 +3949,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6">
       <c r="B52" s="11">
         <v>26</v>
       </c>
@@ -3657,7 +3958,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6">
       <c r="B54" s="4">
         <f>SUM(B41:B53)</f>
         <v>334</v>
@@ -3673,7 +3974,7 @@
         <v>6279</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
         <v>232</v>
       </c>
@@ -3681,7 +3982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6">
       <c r="B58" s="2" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6">
       <c r="B59" s="11">
         <v>60</v>
       </c>
@@ -3718,7 +4019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6">
       <c r="B60" s="11">
         <v>19</v>
       </c>
@@ -3738,7 +4039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6">
       <c r="B61" s="11">
         <v>73</v>
       </c>
@@ -3758,7 +4059,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6">
       <c r="B62" s="11">
         <v>26</v>
       </c>
@@ -3778,7 +4079,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6">
       <c r="B63" s="11">
         <v>58</v>
       </c>
@@ -3798,7 +4099,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6">
       <c r="B64" s="11">
         <v>39</v>
       </c>
@@ -3818,7 +4119,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6">
       <c r="B65" s="11">
         <v>10</v>
       </c>
@@ -3835,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6">
       <c r="B66" s="11">
         <v>25</v>
       </c>
@@ -3844,7 +4145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6">
       <c r="B67" s="11">
         <v>35</v>
       </c>
@@ -3853,7 +4154,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6">
       <c r="B68" s="11">
         <v>17</v>
       </c>
@@ -3862,7 +4163,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6">
       <c r="B69" s="11">
         <v>28</v>
       </c>
@@ -3871,7 +4172,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6">
       <c r="B72" s="9">
         <f>SUM(B59:B71)</f>
         <v>390</v>
@@ -3896,13 +4197,136 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6">
+        <v>5.5</v>
+      </c>
+      <c r="D6">
+        <v>416</v>
+      </c>
+      <c r="E6" s="4">
+        <f>C6*D6</f>
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9">
+        <v>6.5</v>
+      </c>
+      <c r="D9">
+        <v>416</v>
+      </c>
+      <c r="E9" s="4">
+        <f>C9*D9</f>
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>384</v>
+      </c>
+      <c r="E12" s="4">
+        <f>C12*D12</f>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15">
+        <v>1.2</v>
+      </c>
+      <c r="D15">
+        <v>146</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:E16" si="0">C15*D15</f>
+        <v>175.2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16">
+        <v>4.2</v>
+      </c>
+      <c r="D16">
+        <v>322.64999999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>1355.1299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="5">
+        <f>SUM(E6:E19)</f>
+        <v>7674.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S222"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P5" sqref="P5:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" style="7" bestFit="1" customWidth="1"/>
@@ -3910,12 +4334,12 @@
     <col min="14" max="14" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19">
       <c r="S3" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19">
       <c r="I4" s="2" t="str">
         <f>B5</f>
         <v>BF</v>
@@ -3925,7 +4349,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -3959,7 +4383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3970,7 +4394,7 @@
         <v>302</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f t="shared" ref="E6:E21" si="0">IFERROR(LEFT(D6,FIND("_",D6)-1),D6)</f>
+        <f t="shared" ref="E6:E9" si="0">IFERROR(LEFT(D6,FIND("_",D6)-1),D6)</f>
         <v>180FSD-2000X2200(A)</v>
       </c>
       <c r="F6">
@@ -3993,7 +4417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4027,7 +4451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -4061,7 +4485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -4119,7 +4543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -4143,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -4167,7 +4591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -4191,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -4215,7 +4639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -4239,7 +4663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -4287,7 +4711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -4311,7 +4735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -4335,7 +4759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -4359,7 +4783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -4380,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="I22" s="2" t="s">
         <v>221</v>
       </c>
@@ -4398,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="I23" s="2" t="s">
         <v>218</v>
       </c>
@@ -4416,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="I24" s="2" t="s">
         <v>219</v>
       </c>
@@ -4434,13 +4858,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="I28" s="2" t="str">
         <f>B29</f>
         <v>GF</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -4466,7 +4890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30" t="s">
         <v>23</v>
       </c>
@@ -4492,7 +4916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -4518,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>23</v>
       </c>
@@ -4544,7 +4968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11">
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -4570,7 +4994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11">
       <c r="B34" t="s">
         <v>23</v>
       </c>
@@ -4596,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -4622,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11">
       <c r="B36" t="s">
         <v>23</v>
       </c>
@@ -4648,7 +5072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11">
       <c r="B37" t="s">
         <v>23</v>
       </c>
@@ -4674,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11">
       <c r="B38" t="s">
         <v>23</v>
       </c>
@@ -4700,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11">
       <c r="B39" t="s">
         <v>23</v>
       </c>
@@ -4726,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -4752,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -4778,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11">
       <c r="B42" t="s">
         <v>23</v>
       </c>
@@ -4804,7 +5228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11">
       <c r="B43" t="s">
         <v>23</v>
       </c>
@@ -4830,7 +5254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -4856,7 +5280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11">
       <c r="B45" t="s">
         <v>23</v>
       </c>
@@ -4882,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11">
       <c r="B46" t="s">
         <v>23</v>
       </c>
@@ -4908,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11">
       <c r="B47" t="s">
         <v>23</v>
       </c>
@@ -4934,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11">
       <c r="B48" t="s">
         <v>23</v>
       </c>
@@ -4960,7 +5384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
         <v>23</v>
       </c>
@@ -4978,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
         <v>23</v>
       </c>
@@ -4996,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6">
       <c r="B51" t="s">
         <v>23</v>
       </c>
@@ -5014,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
         <v>23</v>
       </c>
@@ -5032,7 +5456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
         <v>23</v>
       </c>
@@ -5050,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
         <v>23</v>
       </c>
@@ -5068,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
         <v>23</v>
       </c>
@@ -5086,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
         <v>23</v>
       </c>
@@ -5104,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
         <v>23</v>
       </c>
@@ -5122,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6">
       <c r="B58" t="s">
         <v>23</v>
       </c>
@@ -5140,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
         <v>23</v>
       </c>
@@ -5158,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>23</v>
       </c>
@@ -5176,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6">
       <c r="B61" t="s">
         <v>23</v>
       </c>
@@ -5194,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6">
       <c r="B62" t="s">
         <v>23</v>
       </c>
@@ -5212,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6">
       <c r="B63" t="s">
         <v>23</v>
       </c>
@@ -5230,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6">
       <c r="B64" t="s">
         <v>23</v>
       </c>
@@ -5248,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6">
       <c r="B65" t="s">
         <v>23</v>
       </c>
@@ -5266,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
         <v>23</v>
       </c>
@@ -5284,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6">
       <c r="B67" t="s">
         <v>23</v>
       </c>
@@ -5302,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6">
       <c r="B68" t="s">
         <v>23</v>
       </c>
@@ -5320,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6">
       <c r="B69" t="s">
         <v>23</v>
       </c>
@@ -5338,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6">
       <c r="B70" t="s">
         <v>23</v>
       </c>
@@ -5356,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6">
       <c r="B71" t="s">
         <v>23</v>
       </c>
@@ -5374,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6">
       <c r="B72" t="s">
         <v>23</v>
       </c>
@@ -5392,7 +5816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6">
       <c r="B73" t="s">
         <v>23</v>
       </c>
@@ -5410,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6">
       <c r="B74" t="s">
         <v>23</v>
       </c>
@@ -5428,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6">
       <c r="B75" t="s">
         <v>23</v>
       </c>
@@ -5446,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6">
       <c r="B76" t="s">
         <v>23</v>
       </c>
@@ -5464,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6">
       <c r="B77" t="s">
         <v>23</v>
       </c>
@@ -5482,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6">
       <c r="B78" t="s">
         <v>23</v>
       </c>
@@ -5500,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6">
       <c r="B79" t="s">
         <v>23</v>
       </c>
@@ -5518,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6">
       <c r="B80" t="s">
         <v>23</v>
       </c>
@@ -5536,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6">
       <c r="B81" t="s">
         <v>23</v>
       </c>
@@ -5554,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6">
       <c r="B82" t="s">
         <v>23</v>
       </c>
@@ -5572,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6">
       <c r="B83" t="s">
         <v>23</v>
       </c>
@@ -5590,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6">
       <c r="B84" t="s">
         <v>23</v>
       </c>
@@ -5608,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6">
       <c r="B85" t="s">
         <v>23</v>
       </c>
@@ -5626,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6">
       <c r="B86" t="s">
         <v>23</v>
       </c>
@@ -5644,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6">
       <c r="B87" t="s">
         <v>23</v>
       </c>
@@ -5662,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6">
       <c r="B88" t="s">
         <v>23</v>
       </c>
@@ -5680,7 +6104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6">
       <c r="B89" t="s">
         <v>23</v>
       </c>
@@ -5698,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6">
       <c r="B90" t="s">
         <v>23</v>
       </c>
@@ -5716,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6">
       <c r="B91" t="s">
         <v>23</v>
       </c>
@@ -5734,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6">
       <c r="B92" t="s">
         <v>23</v>
       </c>
@@ -5752,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6">
       <c r="B93" t="s">
         <v>23</v>
       </c>
@@ -5770,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6">
       <c r="B94" t="s">
         <v>23</v>
       </c>
@@ -5788,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6">
       <c r="B95" t="s">
         <v>23</v>
       </c>
@@ -5806,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6">
       <c r="B96" t="s">
         <v>23</v>
       </c>
@@ -5824,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6">
       <c r="B97" t="s">
         <v>23</v>
       </c>
@@ -5842,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6">
       <c r="B98" t="s">
         <v>23</v>
       </c>
@@ -5860,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6">
       <c r="B99" t="s">
         <v>23</v>
       </c>
@@ -5878,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6">
       <c r="B100" t="s">
         <v>23</v>
       </c>
@@ -5896,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6">
       <c r="B101" t="s">
         <v>23</v>
       </c>
@@ -5914,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6">
       <c r="B102" t="s">
         <v>23</v>
       </c>
@@ -5932,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6">
       <c r="B103" t="s">
         <v>23</v>
       </c>
@@ -5950,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6">
       <c r="B104" t="s">
         <v>23</v>
       </c>
@@ -5968,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6">
       <c r="B105" t="s">
         <v>23</v>
       </c>
@@ -5986,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6">
       <c r="B106" t="s">
         <v>23</v>
       </c>
@@ -6004,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6">
       <c r="B107" t="s">
         <v>23</v>
       </c>
@@ -6022,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6">
       <c r="B108" t="s">
         <v>23</v>
       </c>
@@ -6040,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6">
       <c r="B109" t="s">
         <v>23</v>
       </c>
@@ -6058,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6">
       <c r="B110" t="s">
         <v>23</v>
       </c>
@@ -6076,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6">
       <c r="B111" t="s">
         <v>23</v>
       </c>
@@ -6094,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6">
       <c r="B112" t="s">
         <v>23</v>
       </c>
@@ -6112,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:11">
       <c r="B113" t="s">
         <v>23</v>
       </c>
@@ -6130,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:11">
       <c r="B114" t="s">
         <v>23</v>
       </c>
@@ -6148,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:11">
       <c r="B115" t="s">
         <v>23</v>
       </c>
@@ -6166,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:11">
       <c r="B116" t="s">
         <v>23</v>
       </c>
@@ -6184,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:11">
       <c r="B117" t="s">
         <v>23</v>
       </c>
@@ -6192,7 +6616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:11">
       <c r="B118" t="s">
         <v>23</v>
       </c>
@@ -6200,7 +6624,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:11">
       <c r="B119" t="s">
         <v>23</v>
       </c>
@@ -6208,7 +6632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:11">
       <c r="B120" t="s">
         <v>23</v>
       </c>
@@ -6216,13 +6640,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:11">
       <c r="I122" s="2" t="str">
         <f>B123</f>
         <v>1F</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11">
       <c r="B123" t="s">
         <v>118</v>
       </c>
@@ -6233,7 +6657,7 @@
         <v>304</v>
       </c>
       <c r="E123" s="7" t="str">
-        <f t="shared" ref="E123:E160" si="9">IFERROR(LEFT(D123,FIND("_",D123)-1),D123)</f>
+        <f t="shared" ref="E123:E151" si="9">IFERROR(LEFT(D123,FIND("_",D123)-1),D123)</f>
         <v>NSD-1200X2200</v>
       </c>
       <c r="F123">
@@ -6248,7 +6672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:11">
       <c r="B124" t="s">
         <v>118</v>
       </c>
@@ -6274,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:11">
       <c r="B125" t="s">
         <v>118</v>
       </c>
@@ -6300,7 +6724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:11">
       <c r="B126" t="s">
         <v>118</v>
       </c>
@@ -6326,7 +6750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:11">
       <c r="B127" t="s">
         <v>118</v>
       </c>
@@ -6352,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:11">
       <c r="B128" t="s">
         <v>118</v>
       </c>
@@ -6378,7 +6802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:11">
       <c r="B129" t="s">
         <v>118</v>
       </c>
@@ -6404,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:11">
       <c r="B130" t="s">
         <v>118</v>
       </c>
@@ -6430,7 +6854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:11">
       <c r="B131" t="s">
         <v>118</v>
       </c>
@@ -6456,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:11">
       <c r="B132" t="s">
         <v>118</v>
       </c>
@@ -6482,7 +6906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:11">
       <c r="B133" t="s">
         <v>118</v>
       </c>
@@ -6508,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:11">
       <c r="B134" t="s">
         <v>118</v>
       </c>
@@ -6534,7 +6958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:11">
       <c r="B135" t="s">
         <v>118</v>
       </c>
@@ -6560,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:11">
       <c r="B136" t="s">
         <v>118</v>
       </c>
@@ -6586,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:11">
       <c r="B137" t="s">
         <v>118</v>
       </c>
@@ -6612,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:11">
       <c r="B138" t="s">
         <v>118</v>
       </c>
@@ -6638,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:11">
       <c r="B139" t="s">
         <v>118</v>
       </c>
@@ -6664,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:11">
       <c r="B140" t="s">
         <v>118</v>
       </c>
@@ -6690,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11">
       <c r="B141" t="s">
         <v>118</v>
       </c>
@@ -6716,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:11">
       <c r="B142" t="s">
         <v>118</v>
       </c>
@@ -6742,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:11">
       <c r="B143" t="s">
         <v>118</v>
       </c>
@@ -6760,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:11">
       <c r="B144" t="s">
         <v>118</v>
       </c>
@@ -6778,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6">
       <c r="B145" t="s">
         <v>118</v>
       </c>
@@ -6796,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6">
       <c r="B146" t="s">
         <v>118</v>
       </c>
@@ -6814,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6">
       <c r="B147" t="s">
         <v>118</v>
       </c>
@@ -6832,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6">
       <c r="B148" t="s">
         <v>118</v>
       </c>
@@ -6850,7 +7274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6">
       <c r="B149" t="s">
         <v>118</v>
       </c>
@@ -6868,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6">
       <c r="B150" t="s">
         <v>118</v>
       </c>
@@ -6886,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6">
       <c r="B151" t="s">
         <v>118</v>
       </c>
@@ -6904,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6">
       <c r="B152" t="s">
         <v>118</v>
       </c>
@@ -6912,7 +7336,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6">
       <c r="B153" t="s">
         <v>118</v>
       </c>
@@ -6920,7 +7344,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6">
       <c r="B154" t="s">
         <v>118</v>
       </c>
@@ -6928,7 +7352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6">
       <c r="B155" t="s">
         <v>118</v>
       </c>
@@ -6936,7 +7360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6">
       <c r="B156" t="s">
         <v>118</v>
       </c>
@@ -6944,7 +7368,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6">
       <c r="B157" t="s">
         <v>118</v>
       </c>
@@ -6952,7 +7376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6">
       <c r="B158" t="s">
         <v>118</v>
       </c>
@@ -6960,7 +7384,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6">
       <c r="B159" t="s">
         <v>118</v>
       </c>
@@ -6968,7 +7392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6">
       <c r="B160" t="s">
         <v>118</v>
       </c>
@@ -6976,13 +7400,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:11">
       <c r="I162" s="2" t="str">
         <f>B163</f>
         <v>2F</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:11">
       <c r="B163" t="s">
         <v>157</v>
       </c>
@@ -7008,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:11">
       <c r="B164" t="s">
         <v>157</v>
       </c>
@@ -7034,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:11">
       <c r="B165" t="s">
         <v>157</v>
       </c>
@@ -7060,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:11">
       <c r="B166" t="s">
         <v>157</v>
       </c>
@@ -7086,7 +7510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:11">
       <c r="B167" t="s">
         <v>157</v>
       </c>
@@ -7112,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:11">
       <c r="B168" t="s">
         <v>157</v>
       </c>
@@ -7138,7 +7562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:11">
       <c r="B169" t="s">
         <v>157</v>
       </c>
@@ -7164,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:11">
       <c r="B170" t="s">
         <v>157</v>
       </c>
@@ -7190,7 +7614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:11">
       <c r="B171" t="s">
         <v>157</v>
       </c>
@@ -7216,7 +7640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:11">
       <c r="B172" t="s">
         <v>157</v>
       </c>
@@ -7242,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:11">
       <c r="B173" t="s">
         <v>157</v>
       </c>
@@ -7268,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:11">
       <c r="B174" t="s">
         <v>157</v>
       </c>
@@ -7294,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:11">
       <c r="B175" t="s">
         <v>157</v>
       </c>
@@ -7320,7 +7744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:11">
       <c r="B176" t="s">
         <v>157</v>
       </c>
@@ -7346,7 +7770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:11">
       <c r="B177" t="s">
         <v>157</v>
       </c>
@@ -7372,7 +7796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:11">
       <c r="B178" t="s">
         <v>157</v>
       </c>
@@ -7398,7 +7822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:11">
       <c r="B179" t="s">
         <v>157</v>
       </c>
@@ -7424,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:11">
       <c r="B180" t="s">
         <v>157</v>
       </c>
@@ -7450,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:11">
       <c r="B181" t="s">
         <v>157</v>
       </c>
@@ -7476,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:11">
       <c r="B182" t="s">
         <v>157</v>
       </c>
@@ -7502,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:11">
       <c r="B183" t="s">
         <v>157</v>
       </c>
@@ -7520,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:11">
       <c r="B184" t="s">
         <v>157</v>
       </c>
@@ -7538,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:11">
       <c r="B185" t="s">
         <v>157</v>
       </c>
@@ -7556,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:11">
       <c r="B186" t="s">
         <v>157</v>
       </c>
@@ -7574,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:11">
       <c r="B187" t="s">
         <v>157</v>
       </c>
@@ -7592,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:11">
       <c r="B188" t="s">
         <v>157</v>
       </c>
@@ -7610,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:11">
       <c r="B189" t="s">
         <v>157</v>
       </c>
@@ -7628,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:11">
       <c r="B190" t="s">
         <v>157</v>
       </c>
@@ -7646,7 +8070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:11">
       <c r="B191" t="s">
         <v>157</v>
       </c>
@@ -7664,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:11">
       <c r="B192" t="s">
         <v>157</v>
       </c>
@@ -7682,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:11">
       <c r="B193" t="s">
         <v>157</v>
       </c>
@@ -7700,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:11">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -7718,7 +8142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:11">
       <c r="B195" t="s">
         <v>4</v>
       </c>
@@ -7736,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:11">
       <c r="B196" t="s">
         <v>4</v>
       </c>
@@ -7754,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:11">
       <c r="B197" t="s">
         <v>4</v>
       </c>
@@ -7772,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:11">
       <c r="B198" t="s">
         <v>157</v>
       </c>
@@ -7780,7 +8204,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:11">
       <c r="B199" t="s">
         <v>157</v>
       </c>
@@ -7789,16 +8213,16 @@
       </c>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11">
       <c r="E200" s="8"/>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:11">
       <c r="I202" s="2" t="str">
         <f>B203</f>
         <v>RF</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:11">
       <c r="B203" t="s">
         <v>191</v>
       </c>
@@ -7820,7 +8244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:11">
       <c r="B204" t="s">
         <v>191</v>
       </c>
@@ -7836,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:11">
       <c r="I205" s="2" t="s">
         <v>209</v>
       </c>
@@ -7846,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:11">
       <c r="I206" s="2" t="s">
         <v>223</v>
       </c>
@@ -7856,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:11">
       <c r="I207" s="2" t="s">
         <v>225</v>
       </c>
@@ -7866,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11">
       <c r="I208" s="2" t="s">
         <v>226</v>
       </c>
@@ -7876,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:11">
       <c r="I209" s="2" t="s">
         <v>227</v>
       </c>
@@ -7886,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:11">
       <c r="I210" s="2" t="s">
         <v>217</v>
       </c>
@@ -7896,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:11">
       <c r="I211" s="2" t="s">
         <v>216</v>
       </c>
@@ -7906,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:11">
       <c r="I212" s="2" t="s">
         <v>31</v>
       </c>
@@ -7916,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:11">
       <c r="I213" s="2" t="s">
         <v>26</v>
       </c>
@@ -7926,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:11">
       <c r="I214" s="2" t="s">
         <v>207</v>
       </c>
@@ -7936,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:11">
       <c r="I215" s="2" t="s">
         <v>208</v>
       </c>
@@ -7946,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:11">
       <c r="I216" s="2" t="s">
         <v>306</v>
       </c>
@@ -7956,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:11">
       <c r="I217" s="2" t="s">
         <v>310</v>
       </c>
@@ -7966,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:11">
       <c r="I218" s="2" t="s">
         <v>307</v>
       </c>
@@ -7976,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:11">
       <c r="I219" s="2" t="s">
         <v>224</v>
       </c>
@@ -7986,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:11">
       <c r="I220" s="2" t="s">
         <v>221</v>
       </c>
@@ -7996,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:11">
       <c r="I221" s="2" t="s">
         <v>218</v>
       </c>
@@ -8006,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:11">
       <c r="I222" s="2" t="s">
         <v>219</v>
       </c>
@@ -8023,7 +8447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N75"/>
   <sheetViews>
@@ -8031,17 +8455,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="30.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14">
       <c r="H4" s="1" t="str">
         <f>B5</f>
         <v>GF</v>
@@ -8051,7 +8475,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>194</v>
       </c>
@@ -8077,7 +8501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="D6" t="s">
         <v>198</v>
       </c>
@@ -8097,7 +8521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="D7" t="s">
         <v>198</v>
       </c>
@@ -8117,7 +8541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14">
       <c r="D8" t="s">
         <v>198</v>
       </c>
@@ -8137,7 +8561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14">
       <c r="D9" t="s">
         <v>198</v>
       </c>
@@ -8157,7 +8581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14">
       <c r="D10" t="s">
         <v>198</v>
       </c>
@@ -8165,108 +8589,108 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14">
       <c r="D11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14">
       <c r="D12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14">
       <c r="D13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="D14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="D15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="D16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="D17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="D18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="D19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="D20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="D21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="D22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="D23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="D24" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="D25" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="D26" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="D27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="D28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="D29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="H31" s="1" t="str">
         <f>B32</f>
         <v>1F</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" t="s">
         <v>118</v>
       </c>
@@ -8285,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:10">
       <c r="D33" t="s">
         <v>199</v>
       </c>
@@ -8298,7 +8722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10">
       <c r="D34" t="s">
         <v>201</v>
       </c>
@@ -8311,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:10">
       <c r="D35" t="s">
         <v>201</v>
       </c>
@@ -8324,7 +8748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10">
       <c r="D36" t="s">
         <v>201</v>
       </c>
@@ -8337,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:10">
       <c r="D37" t="s">
         <v>201</v>
       </c>
@@ -8345,88 +8769,88 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:10">
       <c r="D38" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:10">
       <c r="D39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:10">
       <c r="D40" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:10">
       <c r="D41" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:10">
       <c r="D42" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:10">
       <c r="D43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:10">
       <c r="D44" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:10">
       <c r="D45" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:10">
       <c r="D46" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:10">
       <c r="D47" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:10">
       <c r="D48" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="D49" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="D50" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="D51" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="D52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="H54" s="1" t="str">
         <f>B55</f>
         <v>2F</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" t="s">
         <v>157</v>
       </c>
@@ -8445,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="D56" t="s">
         <v>201</v>
       </c>
@@ -8458,7 +8882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="D57" t="s">
         <v>201</v>
       </c>
@@ -8471,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="D58" t="s">
         <v>201</v>
       </c>
@@ -8484,7 +8908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10">
       <c r="D59" t="s">
         <v>201</v>
       </c>
@@ -8497,7 +8921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="D60" t="s">
         <v>201</v>
       </c>
@@ -8505,378 +8929,79 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="D61" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="D62" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="D63" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="D64" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4">
       <c r="D65" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4">
       <c r="D66" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4">
       <c r="D67" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4">
       <c r="D68" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4">
       <c r="D69" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4">
       <c r="D70" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4">
       <c r="D71" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4">
       <c r="D72" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4">
       <c r="D73" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4">
       <c r="D74" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4">
       <c r="D75" t="s">
         <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <f>0.15*32.825</f>
-        <v>4.9237500000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4">
-        <f>((60+40+0.65) * 39) + (58 * 26)</f>
-        <v>5433.35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5">
-        <f>(39+0.65+42)*26</f>
-        <v>2122.9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9">
-        <v>150</v>
-      </c>
-      <c r="D9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9">
-        <f>E4*C9/1000</f>
-        <v>815.00250000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10">
-        <f>E5*C10/1000</f>
-        <v>269.60829999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="5">
-        <f>SUM(E9:E10)</f>
-        <v>1084.6107999999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F14" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="G14">
-        <v>60</v>
-      </c>
-      <c r="H14">
-        <v>32</v>
-      </c>
-      <c r="I14">
-        <f>18+0.65+32</f>
-        <v>50.65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F15" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="G15">
-        <v>39</v>
-      </c>
-      <c r="H15">
-        <v>39</v>
-      </c>
-      <c r="I15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM(F16:O16)</f>
-        <v>5729.33</v>
-      </c>
-      <c r="F16">
-        <f>E4</f>
-        <v>5433.35</v>
-      </c>
-      <c r="G16">
-        <f>(G14*2+G15*2)*0.6</f>
-        <v>118.8</v>
-      </c>
-      <c r="H16">
-        <f>(H14*2+H15*2)*0.6</f>
-        <v>85.2</v>
-      </c>
-      <c r="I16">
-        <f>(I14*2+I15*2)*0.6</f>
-        <v>91.98</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="G17">
-        <v>39</v>
-      </c>
-      <c r="H17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F18" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="G18">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="4">
-        <f>F19+G19</f>
-        <v>2200.9</v>
-      </c>
-      <c r="F19">
-        <f>E5</f>
-        <v>2122.9</v>
-      </c>
-      <c r="G19">
-        <f>(G17*2+G18*2)*0.6</f>
-        <v>78</v>
-      </c>
-      <c r="H19">
-        <f>(H17*2+H18*2)*0.6</f>
-        <v>81.599999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="5">
-        <f>SUM(E16:E19)</f>
-        <v>7930.23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23">
-        <f>E4</f>
-        <v>5433.35</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>335</v>
-      </c>
-      <c r="E24">
-        <f>E5</f>
-        <v>2122.9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="5">
-        <f>SUM(E23:E24)</f>
-        <v>7556.25</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>334</v>
-      </c>
-      <c r="E28">
-        <f>E4</f>
-        <v>5433.35</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>335</v>
-      </c>
-      <c r="E29">
-        <f>E5</f>
-        <v>2122.9</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="5">
-        <f>SUM(E28:E29)</f>
-        <v>7556.25</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>334</v>
-      </c>
-      <c r="E33">
-        <f>E4</f>
-        <v>5433.35</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>335</v>
-      </c>
-      <c r="E34">
-        <f>E5</f>
-        <v>2122.9</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="5">
-        <f>SUM(E33:E34)</f>
-        <v>7556.25</v>
       </c>
     </row>
   </sheetData>
@@ -8887,138 +9012,619 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="C2">
+        <f>0.15*32.825</f>
+        <v>4.9237500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="E3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4">
+        <f>8*28</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="D5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5">
+        <f>8*26</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="D6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6">
+        <f>((60+40+0.65) * 39) + (58 * 26)</f>
+        <v>5433.35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="D7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7">
+        <f>(39+0.65+42)*26</f>
+        <v>2122.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11">
+        <f>40+(8/0.15)/2</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11">
+        <f>E4*C11/1000</f>
+        <v>14.933333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12">
+        <f>40+(8/0.15)/2</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12">
+        <f>E5*C12/1000</f>
+        <v>13.866666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13">
+        <f>E6*C13/1000</f>
+        <v>815.00250000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14">
+        <f>E7*C14/1000</f>
+        <v>269.60829999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="D15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="5">
+        <f>SUM(E11:E14)</f>
+        <v>1113.4108000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="C17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="20" spans="1:13">
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="15">
+        <v>8</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="19">
+        <v>28</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" thickBot="1">
+      <c r="D22" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="22">
+        <f>SUM(F22:O22)</f>
+        <v>267.2</v>
+      </c>
+      <c r="F22" s="23">
+        <f>E4</f>
+        <v>224</v>
+      </c>
+      <c r="G22" s="23">
+        <f>(G20*2+G21*2)*0.6</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="H22" s="23">
+        <f>(H20*2+H21*2)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <f>(I20*2+I21*2)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="24" spans="1:13">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G24" s="15">
+        <v>8</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" s="19">
+        <v>26</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" thickBot="1">
+      <c r="D26" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="22">
+        <f>SUM(F26:O26)</f>
+        <v>248.8</v>
+      </c>
+      <c r="F26" s="23">
+        <f>E5</f>
+        <v>208</v>
+      </c>
+      <c r="G26" s="23">
+        <f>(G24*2+G25*2)*0.6</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H26" s="23">
+        <f>(H24*2+H25*2)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="23">
+        <f>(I24*2+I25*2)*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G28" s="15">
+        <v>60</v>
+      </c>
+      <c r="H28" s="15">
+        <v>32</v>
+      </c>
+      <c r="I28" s="15">
+        <f>18+0.65+32</f>
+        <v>50.65</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <f>(22+16)*18</f>
+        <v>684</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G29" s="19">
+        <v>39</v>
+      </c>
+      <c r="H29" s="19">
+        <v>39</v>
+      </c>
+      <c r="I29" s="19">
+        <v>26</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A30">
+        <v>195</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="22">
+        <f>SUM(F30:O30)</f>
+        <v>5729.33</v>
+      </c>
+      <c r="F30" s="23">
+        <f>E6</f>
+        <v>5433.35</v>
+      </c>
+      <c r="G30" s="23">
+        <f>(G28*2+G29*2)*0.6</f>
+        <v>118.8</v>
+      </c>
+      <c r="H30" s="23">
+        <f>(H28*2+H29*2)*0.6</f>
+        <v>85.2</v>
+      </c>
+      <c r="I30" s="23">
+        <f>(I28*2+I29*2)*0.6</f>
+        <v>91.98</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" thickBot="1">
+      <c r="D31" s="19"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G32" s="15">
+        <v>39</v>
+      </c>
+      <c r="H32" s="15">
+        <v>42</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G33" s="19">
+        <v>26</v>
+      </c>
+      <c r="H33" s="19">
+        <v>26</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="3:13" ht="17.25" thickBot="1">
+      <c r="D34" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="22">
+        <f>F34+G34</f>
+        <v>2200.9</v>
+      </c>
+      <c r="F34" s="23">
+        <f>E7</f>
+        <v>2122.9</v>
+      </c>
+      <c r="G34" s="23">
+        <f>(G32*2+G33*2)*0.6</f>
+        <v>78</v>
+      </c>
+      <c r="H34" s="23">
+        <f>(H32*2+H33*2)*0.6</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="D36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="5">
+        <f>SUM(E20:E34)</f>
+        <v>8446.23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="D39" t="s">
+        <v>341</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="0">E4</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="D40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="D41" t="s">
+        <v>334</v>
+      </c>
+      <c r="E41">
+        <f>E6</f>
+        <v>5433.35</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="D42" t="s">
+        <v>335</v>
+      </c>
+      <c r="E42">
+        <f>E7</f>
+        <v>2122.9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="D43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="5">
+        <f>SUM(E39:E42)</f>
+        <v>7988.25</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="D46" t="s">
+        <v>341</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:E47" si="1">E4</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="D47" t="s">
+        <v>343</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="D48" t="s">
+        <v>334</v>
+      </c>
+      <c r="E48">
+        <f>E6</f>
+        <v>5433.35</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="D49" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49">
+        <f>E7</f>
+        <v>2122.9</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="D50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="5">
+        <f>SUM(E46:E49)</f>
+        <v>7988.25</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="D53" t="s">
+        <v>341</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E54" si="2">E4</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="D54" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="D55" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55">
+        <f>E6</f>
+        <v>5433.35</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="D56" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56">
+        <f>E7</f>
+        <v>2122.9</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="D57" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="5">
+        <f>SUM(E53:E56)</f>
+        <v>7988.25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:E21"/>
+  <dimension ref="B5:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>219</v>
+    <row r="6" spans="2:3">
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="5">
+        <f>SUM(C5:C6)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B18">
-    <sortCondition ref="B2:B18"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0_0816.xlsx
+++ b/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0_0816.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="825" windowWidth="11610" windowHeight="11670" activeTab="7"/>
+    <workbookView xWindow="7950" yWindow="825" windowWidth="11610" windowHeight="11670" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Trench" sheetId="8" r:id="rId1"/>
-    <sheet name="Expansion Joint" sheetId="4" r:id="rId2"/>
-    <sheet name="PAINT" sheetId="5" r:id="rId3"/>
-    <sheet name="Wall" sheetId="7" r:id="rId4"/>
-    <sheet name="Cladding" sheetId="12" r:id="rId5"/>
-    <sheet name="Door" sheetId="2" r:id="rId6"/>
-    <sheet name="Window" sheetId="3" r:id="rId7"/>
-    <sheet name="Roof" sheetId="10" r:id="rId8"/>
-    <sheet name="Steel Fence" sheetId="11" r:id="rId9"/>
-    <sheet name="Ext Stair" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
+    <sheet name="Pile" sheetId="14" r:id="rId1"/>
+    <sheet name="Trench" sheetId="8" r:id="rId2"/>
+    <sheet name="Expansion Joint" sheetId="4" r:id="rId3"/>
+    <sheet name="PAINT" sheetId="5" r:id="rId4"/>
+    <sheet name="Wall" sheetId="7" r:id="rId5"/>
+    <sheet name="Cladding" sheetId="12" r:id="rId6"/>
+    <sheet name="Door" sheetId="2" r:id="rId7"/>
+    <sheet name="Window" sheetId="3" r:id="rId8"/>
+    <sheet name="Roof" sheetId="10" r:id="rId9"/>
+    <sheet name="Steel Fence&amp; Single sheet" sheetId="11" r:id="rId10"/>
+    <sheet name="Ladder" sheetId="13" r:id="rId11"/>
+    <sheet name="Ext Stair" sheetId="9" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="362">
   <si>
     <t>CW-200mm</t>
   </si>
@@ -1210,6 +1212,58 @@
   </si>
   <si>
     <t>downpipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip Laydown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ton OHCrane pit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3500 pit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA Cleaning Room pit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for EJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuel Rod 1st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for Boundary FF storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Fence&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;single sheet&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,6 +1353,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,7 +1545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,6 +1622,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2079,48 +2174,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E5"/>
+  <dimension ref="B3:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="B4:E4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>246</v>
-      </c>
+    <row r="3" spans="2:12">
+      <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4">
-        <v>21.6</v>
-      </c>
-      <c r="C4">
-        <v>31.2</v>
-      </c>
-      <c r="D4">
-        <v>21.6</v>
-      </c>
-      <c r="E4">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>247</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6">
+        <f>C3*18</f>
+        <v>1656</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:L6" si="0">D3*18</f>
+        <v>846</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1314</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>792</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7">
+        <f>B4*18</f>
+        <v>11232</v>
       </c>
     </row>
   </sheetData>
@@ -2130,6 +2271,218 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="B3" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66">
+      <c r="C5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5">
+        <f>(3.4+2+3.4+2)*15</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f>(3.4+2+3.4+2)*15</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7">
+        <f>(3.4+2+3.4+2)*15</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUM(C9:G9)</f>
+        <v>521</v>
+      </c>
+      <c r="D9" s="29">
+        <f>SUM(D5:D8)</f>
+        <v>35</v>
+      </c>
+      <c r="G9" s="28">
+        <f>SUM(G5:G8)</f>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="28"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66">
+      <c r="F19" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19">
+        <f>(3.4*2)*15</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="F20" s="27"/>
+      <c r="G20">
+        <f>(3.4*2)*15</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="F21" s="27"/>
+      <c r="G21">
+        <f>(3.4*2)*15</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <f>SUM(C23:G23)</f>
+        <v>306</v>
+      </c>
+      <c r="D23" s="29">
+        <f>SUM(D17:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <f>SUM(G17:G22)</f>
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4">
+        <v>3.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>3.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2144,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:E21"/>
   <sheetViews>
@@ -2269,10 +2622,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4">
+        <v>21.6</v>
+      </c>
+      <c r="C4">
+        <v>31.2</v>
+      </c>
+      <c r="D4">
+        <v>21.6</v>
+      </c>
+      <c r="E4">
+        <v>14.4</v>
+      </c>
+      <c r="F4">
+        <f>3.5*3.6</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView topLeftCell="G4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3047,12 +3464,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H24"/>
+  <dimension ref="A3:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3085,8 +3502,8 @@
         <v>255</v>
       </c>
       <c r="G7" s="5">
-        <f>C15+C24</f>
-        <v>797.57999999999993</v>
+        <f>C15+C27</f>
+        <v>834.47999999999979</v>
       </c>
       <c r="H7" t="s">
         <v>243</v>
@@ -3156,6 +3573,9 @@
       <c r="C18">
         <v>1.2</v>
       </c>
+      <c r="D18">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
@@ -3206,12 +3626,31 @@
         <v>42</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23">
+        <f>39+58+26</f>
+        <v>123</v>
+      </c>
+      <c r="C23" s="7">
+        <f>B23*D18</f>
+        <v>36.9</v>
+      </c>
+    </row>
     <row r="24" spans="1:4">
-      <c r="C24" s="4">
-        <f>SUM(C19:C23)</f>
-        <v>694.37999999999988</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="4">
+        <f>SUM(C19:C26)</f>
+        <v>731.27999999999986</v>
+      </c>
+      <c r="D27" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3221,12 +3660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4195,7 +4634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E20"/>
   <sheetViews>
@@ -4318,7 +4757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S222"/>
   <sheetViews>
@@ -8447,7 +8886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N75"/>
   <sheetViews>
@@ -9010,12 +9449,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9591,40 +10030,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" s="5">
-        <f>SUM(C5:C6)</f>
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>